--- a/draft crosswalks/bioconductor_nde_ComputationalTool.xlsx
+++ b/draft crosswalks/bioconductor_nde_ComputationalTool.xlsx
@@ -618,7 +618,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>10/20/2022</t>
+          <t>01/05/2023</t>
         </is>
       </c>
     </row>
@@ -630,7 +630,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>10/20/2022</t>
+          <t>01/05/2023</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2022-08-30T20:34:20Z</t>
+          <t>2022-11-12T00:00:10Z</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
